--- a/KOMPEGE/block 22/dz 2/22_11519.xlsx
+++ b/KOMPEGE/block 22/dz 2/22_11519.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maratishimov/Documents/Documents/Для КИМ-2024/22files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrew\PycharmProjects\EGEtasks\KOMPEGE\block 22\dz 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E807CCE2-E63E-1D40-A9FD-384C6321B99D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BBD98F5-469E-4D22-B120-E64E3E528E5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4360" yWindow="760" windowWidth="30200" windowHeight="20120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2670" yWindow="2670" windowWidth="33825" windowHeight="18780" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -102,6 +102,1327 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>922734</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>188516</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>183554</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Прямоугольник 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{933D6F98-3660-4949-8C75-2A89ABAF2AA2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3864570" y="188516"/>
+          <a:ext cx="1716485" cy="183554"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100"/>
+            <a:t>1</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>56659</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>3729</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>23436</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>187283</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Прямоугольник 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5831FF32-14B6-4525-B044-D51A2FA9D792}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4576107" y="384729"/>
+          <a:ext cx="400329" cy="183554"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100"/>
+            <a:t>2</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>8930</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>189507</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>192483</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>182561</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Прямоугольник 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C2175FE-80BF-4C41-9E06-97CB09F8E880}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5634633" y="189507"/>
+          <a:ext cx="403819" cy="183554"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100"/>
+            <a:t>3</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>35345</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>181331</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>213938</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>176369</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Прямоугольник 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB615AB9-D89A-4F9A-824E-8C02C5CE1134}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6072224" y="371831"/>
+          <a:ext cx="1912800" cy="185538"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100"/>
+            <a:t>4</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>16868</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>177603</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>190501</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>172641</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Прямоугольник 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ADEA8094-D932-40E8-BA0B-0A9FFD984474}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6083102" y="177603"/>
+          <a:ext cx="1495227" cy="185538"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100"/>
+            <a:t>5</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>213322</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>189509</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>171648</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>184547</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Прямоугольник 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{207FD62D-03A9-4B8C-9978-072AB14EC54A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7601150" y="189509"/>
+          <a:ext cx="1279920" cy="185538"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100"/>
+            <a:t>6</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>23815</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>11906</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>192484</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>4960</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="Прямоугольник 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E8B99EB-16CC-4094-B5CA-4400ACCF8709}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8953503" y="202406"/>
+          <a:ext cx="2151059" cy="183554"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100"/>
+            <a:t>7</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>219278</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>188517</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>169667</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>183556</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="Прямоугольник 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{60A71D28-E37C-4013-8691-D8BAE8D18060}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11131356" y="188517"/>
+          <a:ext cx="611186" cy="185539"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100"/>
+            <a:t>8</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>31378</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>17482</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>201517</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>12521</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="Прямоугольник 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38FEBC22-CBC1-4226-A4C0-8B409A1733CF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4550826" y="779482"/>
+          <a:ext cx="2554674" cy="185539"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100"/>
+            <a:t>9</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>51701</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>5951</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>34829</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>189505</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="Прямоугольник 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E789777-1BF2-497E-9141-12634209701F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4571149" y="577451"/>
+          <a:ext cx="416680" cy="183554"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100"/>
+            <a:t>10</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>43763</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>185676</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>15503</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>180714</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="Прямоугольник 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0112B7A3-6D71-4F4C-A80A-0D8AEE64F72C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4996763" y="566676"/>
+          <a:ext cx="1705947" cy="185538"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100"/>
+            <a:t>11</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>61858</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>1126</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>28638</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>186664</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="Прямоугольник 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AEABA2BF-56BD-44B6-80BB-4D5E95A4B37E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5014858" y="382126"/>
+          <a:ext cx="1050659" cy="185538"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100"/>
+            <a:t>12</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>34829</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>87945</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>43763</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>97728</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="Прямая со стрелкой 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DBEDB43D-DF73-40C3-A3E3-82A1E3A37067}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="11" idx="3"/>
+          <a:endCxn id="12" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4987829" y="659445"/>
+          <a:ext cx="8934" cy="9783"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>34829</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>93895</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>61858</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>97728</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="20" name="Прямая со стрелкой 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74F6A9EC-A6DD-437E-B25B-651F96081734}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="11" idx="3"/>
+          <a:endCxn id="13" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4987829" y="474895"/>
+          <a:ext cx="27029" cy="194333"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>192484</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>90787</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>219278</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>103683</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="24" name="Прямая со стрелкой 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3273F9C0-09E8-4473-9FEF-E84FFFF47427}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="8" idx="3"/>
+          <a:endCxn id="9" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="11104562" y="281287"/>
+          <a:ext cx="26794" cy="12896"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>188516</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>90784</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>8930</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>91777</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="27" name="Прямая со стрелкой 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4235C29A-3CFF-4111-BB76-9D9880DCFDC7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="3"/>
+          <a:endCxn id="4" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5593954" y="281284"/>
+          <a:ext cx="40679" cy="993"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>23436</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>90784</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>8930</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>95506</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="29" name="Прямая со стрелкой 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8AD92021-E3CE-4252-B55D-712C8FA9E09F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="3" idx="3"/>
+          <a:endCxn id="4" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4976436" y="281284"/>
+          <a:ext cx="635822" cy="195222"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>192483</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>79872</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>16868</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>90784</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="35" name="Прямая со стрелкой 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79FC5DF8-0F58-49CB-8EF9-7969C81AE257}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="3"/>
+          <a:endCxn id="6" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6038452" y="270372"/>
+          <a:ext cx="44650" cy="10912"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>192483</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>90784</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>35345</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>83600</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="37" name="Прямая со стрелкой 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26B568D1-E5D1-4D2D-93C0-B00787D56BA0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="3"/>
+          <a:endCxn id="5" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6012586" y="281284"/>
+          <a:ext cx="59638" cy="183316"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>190501</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>79872</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>213322</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>91778</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="43" name="Прямая со стрелкой 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4BDFC5B4-0A5B-4FD3-832B-927161111ED8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="6" idx="3"/>
+          <a:endCxn id="7" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7578329" y="270372"/>
+          <a:ext cx="22821" cy="11906"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>171648</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>91778</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>23815</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>103683</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="47" name="Прямая со стрелкой 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79E809C9-628F-4522-BCB4-C7C9430884FD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="7" idx="3"/>
+          <a:endCxn id="8" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8881070" y="282278"/>
+          <a:ext cx="72433" cy="11905"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>190501</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>79872</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>23815</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>103683</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="56" name="Прямая со стрелкой 55">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18DF87E8-2821-4FF9-921B-2B2123879844}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="6" idx="3"/>
+          <a:endCxn id="8" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7578329" y="270372"/>
+          <a:ext cx="1375174" cy="23811"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -401,18 +1722,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:BA17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="192" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="Z16" sqref="Z16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.5" customWidth="1"/>
-    <col min="2" max="2" width="31.6640625" customWidth="1"/>
-    <col min="3" max="3" width="13.83203125" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" customWidth="1"/>
+    <col min="2" max="2" width="31.7109375" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" customWidth="1"/>
+    <col min="4" max="53" width="3.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -422,8 +1746,158 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
+      <c r="D1">
+        <v>1</v>
+      </c>
+      <c r="E1">
+        <v>2</v>
+      </c>
+      <c r="F1">
+        <v>3</v>
+      </c>
+      <c r="G1">
+        <v>4</v>
+      </c>
+      <c r="H1">
+        <v>5</v>
+      </c>
+      <c r="I1">
+        <v>6</v>
+      </c>
+      <c r="J1">
+        <v>7</v>
+      </c>
+      <c r="K1">
+        <v>8</v>
+      </c>
+      <c r="L1">
+        <v>9</v>
+      </c>
+      <c r="M1">
+        <v>10</v>
+      </c>
+      <c r="N1">
+        <v>11</v>
+      </c>
+      <c r="O1">
+        <v>12</v>
+      </c>
+      <c r="P1">
+        <v>13</v>
+      </c>
+      <c r="Q1">
+        <v>14</v>
+      </c>
+      <c r="R1">
+        <v>15</v>
+      </c>
+      <c r="S1">
+        <v>16</v>
+      </c>
+      <c r="T1">
+        <v>17</v>
+      </c>
+      <c r="U1">
+        <v>18</v>
+      </c>
+      <c r="V1">
+        <v>19</v>
+      </c>
+      <c r="W1">
+        <v>20</v>
+      </c>
+      <c r="X1">
+        <v>21</v>
+      </c>
+      <c r="Y1">
+        <v>22</v>
+      </c>
+      <c r="Z1">
+        <v>23</v>
+      </c>
+      <c r="AA1">
+        <v>24</v>
+      </c>
+      <c r="AB1">
+        <v>25</v>
+      </c>
+      <c r="AC1">
+        <v>26</v>
+      </c>
+      <c r="AD1">
+        <v>27</v>
+      </c>
+      <c r="AE1">
+        <v>28</v>
+      </c>
+      <c r="AF1">
+        <v>29</v>
+      </c>
+      <c r="AG1">
+        <v>30</v>
+      </c>
+      <c r="AH1">
+        <v>31</v>
+      </c>
+      <c r="AI1">
+        <v>32</v>
+      </c>
+      <c r="AJ1">
+        <v>33</v>
+      </c>
+      <c r="AK1">
+        <v>34</v>
+      </c>
+      <c r="AL1">
+        <v>35</v>
+      </c>
+      <c r="AM1">
+        <v>36</v>
+      </c>
+      <c r="AN1">
+        <v>37</v>
+      </c>
+      <c r="AO1">
+        <v>38</v>
+      </c>
+      <c r="AP1">
+        <v>39</v>
+      </c>
+      <c r="AQ1">
+        <v>40</v>
+      </c>
+      <c r="AR1">
+        <v>41</v>
+      </c>
+      <c r="AS1">
+        <v>42</v>
+      </c>
+      <c r="AT1">
+        <v>43</v>
+      </c>
+      <c r="AU1">
+        <v>44</v>
+      </c>
+      <c r="AV1">
+        <v>45</v>
+      </c>
+      <c r="AW1">
+        <v>46</v>
+      </c>
+      <c r="AX1">
+        <v>47</v>
+      </c>
+      <c r="AY1">
+        <v>48</v>
+      </c>
+      <c r="AZ1">
+        <v>49</v>
+      </c>
+      <c r="BA1">
+        <v>50</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -434,7 +1908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -445,7 +1919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -456,7 +1930,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -467,7 +1941,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -477,8 +1951,38 @@
       <c r="C6" s="1">
         <v>3</v>
       </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>2</v>
+      </c>
+      <c r="I6">
+        <v>3</v>
+      </c>
+      <c r="J6">
+        <v>4</v>
+      </c>
+      <c r="K6">
+        <v>5</v>
+      </c>
+      <c r="L6">
+        <v>6</v>
+      </c>
+      <c r="M6">
+        <v>7</v>
+      </c>
+      <c r="N6">
+        <v>8</v>
+      </c>
+      <c r="O6">
+        <v>9</v>
+      </c>
+      <c r="P6">
+        <v>10</v>
+      </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -489,7 +1993,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -500,7 +2004,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -511,7 +2015,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -522,7 +2026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -533,7 +2037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -544,7 +2048,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -552,11 +2056,17 @@
         <v>5</v>
       </c>
       <c r="C13" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="26:26" x14ac:dyDescent="0.25">
+      <c r="Z17">
         <v>10</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>